--- a/src/analysis_examples/circadb/results_lomb/cosinor_10471018_fam73b_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10471018_fam73b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23713168310346527, 0.3461467002420738]</t>
+          <t>[0.2380381363561824, 0.3452402469893566]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.894355866089882e-10</v>
+        <v>2.135671639535985e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.894355866089882e-10</v>
+        <v>2.135671639535985e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.157263359880925</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3114810206496182, 0.3708134724146765]</t>
+          <t>[0.31147482445250274, 0.37081966861179194]</t>
         </is>
       </c>
       <c r="U2" t="n">
